--- a/Classification_Reports.xlsx
+++ b/Classification_Reports.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\litem\Documents\NJIT\Data Analytics for Info Systems\Final Project\PyCharm_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CB425955-DC8F-4C95-AD63-5D1CB682F650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D425A4-241D-4BAC-9F71-F9BF8C084181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification Reports" sheetId="1" r:id="rId1"/>
     <sheet name="Proportion Check" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,23 +656,8 @@
     <xf numFmtId="10" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -687,6 +672,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1041,11 +1041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,22 +1056,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -1242,20 +1242,20 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -1409,20 +1409,20 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -1536,7 +1536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1549,30 +1549,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1605,21 +1605,21 @@
         <v>10</v>
       </c>
       <c r="C4" s="4">
-        <f>B4/$B$10</f>
+        <f t="shared" ref="C4:C9" si="0">B4/$B$10</f>
         <v>6.2539086929330832E-3</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="4">
-        <f>D4/$D$10</f>
+        <f t="shared" ref="E4:E9" si="1">D4/$D$10</f>
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <f>F4/$F$10</f>
+        <f t="shared" ref="G4:G9" si="2">F4/$F$10</f>
         <v>0</v>
       </c>
     </row>
@@ -1631,21 +1631,21 @@
         <v>53</v>
       </c>
       <c r="C5" s="4">
-        <f>B5/$B$10</f>
+        <f t="shared" si="0"/>
         <v>3.3145716072545343E-2</v>
       </c>
       <c r="D5" s="3">
         <v>17</v>
       </c>
       <c r="E5" s="4">
-        <f>D5/$D$10</f>
+        <f t="shared" si="1"/>
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="F5" s="3">
         <v>15</v>
       </c>
       <c r="G5" s="4">
-        <f>F5/$F$10</f>
+        <f t="shared" si="2"/>
         <v>3.4403669724770644E-2</v>
       </c>
     </row>
@@ -1657,21 +1657,21 @@
         <v>681</v>
       </c>
       <c r="C6" s="4">
-        <f>B6/$B$10</f>
+        <f t="shared" si="0"/>
         <v>0.42589118198874298</v>
       </c>
       <c r="D6" s="3">
         <v>195</v>
       </c>
       <c r="E6" s="4">
-        <f>D6/$D$10</f>
+        <f t="shared" si="1"/>
         <v>0.40625</v>
       </c>
       <c r="F6" s="3">
         <v>179</v>
       </c>
       <c r="G6" s="4">
-        <f>F6/$F$10</f>
+        <f t="shared" si="2"/>
         <v>0.41055045871559631</v>
       </c>
     </row>
@@ -1683,21 +1683,21 @@
         <v>638</v>
       </c>
       <c r="C7" s="4">
-        <f>B7/$B$10</f>
+        <f t="shared" si="0"/>
         <v>0.39899937460913071</v>
       </c>
       <c r="D7" s="3">
         <v>200</v>
       </c>
       <c r="E7" s="4">
-        <f>D7/$D$10</f>
+        <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="F7" s="3">
         <v>179</v>
       </c>
       <c r="G7" s="4">
-        <f>F7/$F$10</f>
+        <f t="shared" si="2"/>
         <v>0.41055045871559631</v>
       </c>
     </row>
@@ -1709,21 +1709,21 @@
         <v>199</v>
       </c>
       <c r="C8" s="4">
-        <f>B8/$B$10</f>
+        <f t="shared" si="0"/>
         <v>0.12445278298936835</v>
       </c>
       <c r="D8" s="3">
         <v>61</v>
       </c>
       <c r="E8" s="4">
-        <f>D8/$D$10</f>
+        <f t="shared" si="1"/>
         <v>0.12708333333333333</v>
       </c>
       <c r="F8" s="3">
         <v>58</v>
       </c>
       <c r="G8" s="4">
-        <f>F8/$F$10</f>
+        <f t="shared" si="2"/>
         <v>0.13302752293577982</v>
       </c>
     </row>
@@ -1735,21 +1735,21 @@
         <v>18</v>
       </c>
       <c r="C9" s="4">
-        <f>B9/$B$10</f>
+        <f t="shared" si="0"/>
         <v>1.125703564727955E-2</v>
       </c>
       <c r="D9" s="3">
         <v>6</v>
       </c>
       <c r="E9" s="4">
-        <f>D9/$D$10</f>
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F9" s="3">
         <v>5</v>
       </c>
       <c r="G9" s="4">
-        <f>F9/$F$10</f>
+        <f t="shared" si="2"/>
         <v>1.1467889908256881E-2</v>
       </c>
     </row>
@@ -1774,24 +1774,24 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
@@ -1867,12 +1867,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Classification_Reports.xlsx
+++ b/Classification_Reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\litem\Documents\NJIT\Data Analytics for Info Systems\Final Project\PyCharm_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D425A4-241D-4BAC-9F71-F9BF8C084181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6971E3B5-7C89-4A60-9BAF-006306A9E22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Total</t>
   </si>
@@ -38,12 +38,6 @@
     <t>Original</t>
   </si>
   <si>
-    <t>.&gt;= 6</t>
-  </si>
-  <si>
-    <t>.&lt; 6</t>
-  </si>
-  <si>
     <t>Binary Class</t>
   </si>
   <si>
@@ -87,6 +81,12 @@
   </si>
   <si>
     <t>Multi - Outliers</t>
+  </si>
+  <si>
+    <t>&lt; 6</t>
+  </si>
+  <si>
+    <t>&gt;= 6</t>
   </si>
 </sst>
 </file>
@@ -681,11 +681,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E31"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1076,16 +1076,16 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5">
         <v>0.66458333333333297</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5">
         <v>0.40613452116660798</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5">
         <v>0.63801901526670302</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1260,16 +1260,16 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21" s="5">
         <v>0.64678899082568797</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" s="5">
         <v>0.38927688787185299</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5">
         <v>0.61809580542900899</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1427,21 +1427,21 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>0</v>
+      <c r="A27" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B27" s="5">
         <v>0.77294685990338097</v>
@@ -1457,8 +1457,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1</v>
+      <c r="A28" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B28" s="5">
         <v>0.805860805860805</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="5">
         <v>0.79166666666666596</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="5">
         <v>0.78940383288209304</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" s="5">
         <v>0.79125524234219802</v>
@@ -1540,7 +1540,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,28 +1549,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="18"/>
       <c r="F2" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="14"/>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" s="14"/>
     </row>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3">
         <f>SUM(B4:B6)</f>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3">
         <f>SUM(B7:B9)</f>
